--- a/Content/ExcelFiles/Kết quả thực tập tốt nghiệp.xlsx
+++ b/Content/ExcelFiles/Kết quả thực tập tốt nghiệp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Documents\TranVietHoang_1621050401\NCKHExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291AD49E-B6F8-4389-AC8A-707875A0AF3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB248761-6491-4ED5-8D99-8126492561B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B0F60EE2-B072-4847-B0E6-6F8A8EDD5816}"/>
+    <workbookView xWindow="3276" yWindow="3276" windowWidth="11160" windowHeight="8952" xr2:uid="{B0F60EE2-B072-4847-B0E6-6F8A8EDD5816}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,29 +144,35 @@
     <t>0801-01</t>
   </si>
   <si>
-    <t>0805-01</t>
-  </si>
-  <si>
-    <t>0803-01</t>
-  </si>
-  <si>
-    <t>0808-01</t>
-  </si>
-  <si>
-    <t>0802-01</t>
+    <t>0801-02</t>
+  </si>
+  <si>
+    <t>0801-03</t>
+  </si>
+  <si>
+    <t>0801-04</t>
+  </si>
+  <si>
+    <t>0801-05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -183,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -206,16 +212,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,12 +556,12 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -570,7 +593,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -585,7 +608,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -600,7 +623,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -615,7 +638,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -630,7 +653,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -645,11 +668,11 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.6">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -660,11 +683,11 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.6">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -675,11 +698,11 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.6">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -690,11 +713,11 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.6">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -705,11 +728,11 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.6">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -720,11 +743,11 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.6">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -735,11 +758,11 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.6">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -750,11 +773,11 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.6">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -765,11 +788,11 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.6">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -780,11 +803,11 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.6">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -795,11 +818,11 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.6">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -810,11 +833,11 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.6">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -825,11 +848,11 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.6">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -840,11 +863,11 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.6">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -855,11 +878,11 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.6">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -870,11 +893,11 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.6">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -885,11 +908,11 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.6">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -900,11 +923,11 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.6">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -915,11 +938,11 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.6">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="3" t="s">
